--- a/serviceauto/src/test/resources/servicecasesv5.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B35D58-7394-4188-BF41-925ABE003353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469E5F9B-772B-4A9E-A562-98EA4514497B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2565" windowWidth="27300" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-495" yWindow="2880" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -612,15 +612,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="40.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>

--- a/serviceauto/src/test/resources/servicecasesv5.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469E5F9B-772B-4A9E-A562-98EA4514497B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943793F7-88D0-4A56-8165-5CFAA68674B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-495" yWindow="2880" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="2880" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/serviceauto/src/test/resources/servicecasesv5.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943793F7-88D0-4A56-8165-5CFAA68674B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD319BF-94AE-43B7-8CE6-0FC4834955D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="2880" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="2565" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -120,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExpectedResponseData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualResponseData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"reason":"successed","result":{"id":"3836","yangli":"2020-10-28","yinli":"庚子(鼠)年九月十二","wuxing":"复灯火 破执位","chongsha":"冲狗(戊戍)煞南","baiji":"甲不开仓财物耗散 辰不哭泣必主重丧","jishen":"母仓 解神 益後 青龙","yi":"祭祀 解除 破屋 坏垣 馀事勿取","xiongshen":"月破 大耗 四击 九空 往亡","ji":"馀事勿取"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +139,14 @@
   </si>
   <si>
     <t>{"resultcode":"101","reason":"错误的请求KEY","result":null,"error_code":10004}</t>
+  </si>
+  <si>
+    <t>ExpectedResponseData(期望响应结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualResponseData(实际响应结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="40.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -639,10 +639,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -731,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -749,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4"/>
     </row>

--- a/serviceauto/src/test/resources/servicecasesv5.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD319BF-94AE-43B7-8CE6-0FC4834955D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925CD8B-C7C5-429F-9B42-22B3922922FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="2565" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="1860" windowWidth="26655" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7A1BB-B5B4-443F-AC36-0D65840D9AA5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,15 +611,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="40.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.125" customWidth="1"/>

--- a/serviceauto/src/test/resources/servicecasesv5.xlsx
+++ b/serviceauto/src/test/resources/servicecasesv5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\serviceauto\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925CD8B-C7C5-429F-9B42-22B3922922FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC14F8FD-D883-4541-AC6D-A45629C4B6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1860" windowWidth="26655" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="2370" windowWidth="26655" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="2" r:id="rId1"/>
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7A1BB-B5B4-443F-AC36-0D65840D9AA5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -611,8 +611,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
